--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.5492112728621</v>
+        <v>20.5550805</v>
       </c>
       <c r="H2">
-        <v>20.5492112728621</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I2">
-        <v>0.01811042390666086</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J2">
-        <v>0.01811042390666086</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.36022704645594</v>
+        <v>3.5147655</v>
       </c>
       <c r="N2">
-        <v>3.36022704645594</v>
+        <v>7.029531</v>
       </c>
       <c r="O2">
-        <v>0.03861304178861933</v>
+        <v>0.03792266694819667</v>
       </c>
       <c r="P2">
-        <v>0.03861304178861933</v>
+        <v>0.0284987807323048</v>
       </c>
       <c r="Q2">
-        <v>69.05001550240851</v>
+        <v>72.24628779112277</v>
       </c>
       <c r="R2">
-        <v>69.05001550240851</v>
+        <v>288.9851511644911</v>
       </c>
       <c r="S2">
-        <v>0.0006992985551175062</v>
+        <v>0.0006420257142020793</v>
       </c>
       <c r="T2">
-        <v>0.0006992985551175062</v>
+        <v>0.0003353668706649366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.5492112728621</v>
+        <v>20.5550805</v>
       </c>
       <c r="H3">
-        <v>20.5492112728621</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I3">
-        <v>0.01811042390666086</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J3">
-        <v>0.01811042390666086</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.2608719277996</v>
+        <v>57.33079666666666</v>
       </c>
       <c r="N3">
-        <v>53.2608719277996</v>
+        <v>171.99239</v>
       </c>
       <c r="O3">
-        <v>0.6120313434223155</v>
+        <v>0.6185723365797188</v>
       </c>
       <c r="P3">
-        <v>0.6120313434223155</v>
+        <v>0.6972831345697248</v>
       </c>
       <c r="Q3">
-        <v>1094.468909821204</v>
+        <v>1178.439140612465</v>
       </c>
       <c r="R3">
-        <v>1094.468909821204</v>
+        <v>7070.634843674791</v>
       </c>
       <c r="S3">
-        <v>0.01108414707354126</v>
+        <v>0.01047234749393405</v>
       </c>
       <c r="T3">
-        <v>0.01108414707354126</v>
+        <v>0.008205462016240247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.5492112728621</v>
+        <v>20.5550805</v>
       </c>
       <c r="H4">
-        <v>20.5492112728621</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I4">
-        <v>0.01811042390666086</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J4">
-        <v>0.01811042390666086</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.277403546397621</v>
+        <v>0.079775</v>
       </c>
       <c r="N4">
-        <v>0.277403546397621</v>
+        <v>0.239325</v>
       </c>
       <c r="O4">
-        <v>0.003187699694477473</v>
+        <v>0.0008607347362981653</v>
       </c>
       <c r="P4">
-        <v>0.003187699694477473</v>
+        <v>0.0009702597084725632</v>
       </c>
       <c r="Q4">
-        <v>5.700424082765918</v>
+        <v>1.6397815468875</v>
       </c>
       <c r="R4">
-        <v>5.700424082765918</v>
+        <v>9.838689281325001</v>
       </c>
       <c r="S4">
-        <v>5.773059275412034E-05</v>
+        <v>1.457212475497181E-05</v>
       </c>
       <c r="T4">
-        <v>5.773059275412034E-05</v>
+        <v>1.141778538595049E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.5492112728621</v>
+        <v>20.5550805</v>
       </c>
       <c r="H5">
-        <v>20.5492112728621</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I5">
-        <v>0.01811042390666086</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J5">
-        <v>0.01811042390666086</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.2567163980931</v>
+        <v>0.3226396666666667</v>
       </c>
       <c r="N5">
-        <v>2.2567163980931</v>
+        <v>0.967919</v>
       </c>
       <c r="O5">
-        <v>0.02593237997906638</v>
+        <v>0.003481130284019571</v>
       </c>
       <c r="P5">
-        <v>0.02593237997906638</v>
+        <v>0.003924089864264305</v>
       </c>
       <c r="Q5">
-        <v>46.37374204734748</v>
+        <v>6.631884320826501</v>
       </c>
       <c r="R5">
-        <v>46.37374204734748</v>
+        <v>39.791305924959</v>
       </c>
       <c r="S5">
-        <v>0.0004696463943294972</v>
+        <v>5.893507331330851E-05</v>
       </c>
       <c r="T5">
-        <v>0.0004696463943294972</v>
+        <v>4.617775582569231E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.5492112728621</v>
+        <v>20.5550805</v>
       </c>
       <c r="H6">
-        <v>20.5492112728621</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I6">
-        <v>0.01811042390666086</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J6">
-        <v>0.01811042390666086</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.8678927244893</v>
+        <v>3.562661333333333</v>
       </c>
       <c r="N6">
-        <v>27.8678927244893</v>
+        <v>10.687984</v>
       </c>
       <c r="O6">
-        <v>0.3202355351155214</v>
+        <v>0.03843944046714304</v>
       </c>
       <c r="P6">
-        <v>0.3202355351155214</v>
+        <v>0.04333070193251612</v>
       </c>
       <c r="Q6">
-        <v>572.6632153249873</v>
+        <v>73.23079050090401</v>
       </c>
       <c r="R6">
-        <v>572.6632153249873</v>
+        <v>439.3847430054241</v>
       </c>
       <c r="S6">
-        <v>0.005799601290918472</v>
+        <v>0.0006507746212353185</v>
       </c>
       <c r="T6">
-        <v>0.005799601290918472</v>
+        <v>0.0005099053902453679</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>985.411543362938</v>
+        <v>20.5550805</v>
       </c>
       <c r="H7">
-        <v>985.411543362938</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I7">
-        <v>0.8684625670469396</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J7">
-        <v>0.8684625670469396</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.36022704645594</v>
+        <v>27.871807</v>
       </c>
       <c r="N7">
-        <v>3.36022704645594</v>
+        <v>55.743614</v>
       </c>
       <c r="O7">
-        <v>0.03861304178861933</v>
+        <v>0.3007236909846238</v>
       </c>
       <c r="P7">
-        <v>0.03861304178861933</v>
+        <v>0.2259930331927174</v>
       </c>
       <c r="Q7">
-        <v>3311.206519898034</v>
+        <v>572.9072365654636</v>
       </c>
       <c r="R7">
-        <v>3311.206519898034</v>
+        <v>2291.628946261854</v>
       </c>
       <c r="S7">
-        <v>0.03353398139323509</v>
+        <v>0.0050912121435349</v>
       </c>
       <c r="T7">
-        <v>0.03353398139323509</v>
+        <v>0.002659432241885575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>985.411543362938</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H8">
-        <v>985.411543362938</v>
+        <v>3127.850708</v>
       </c>
       <c r="I8">
-        <v>0.8684625670469396</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J8">
-        <v>0.8684625670469396</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.2608719277996</v>
+        <v>3.5147655</v>
       </c>
       <c r="N8">
-        <v>53.2608719277996</v>
+        <v>7.029531</v>
       </c>
       <c r="O8">
-        <v>0.6120313434223155</v>
+        <v>0.03792266694819667</v>
       </c>
       <c r="P8">
-        <v>0.6120313434223155</v>
+        <v>0.0284987807323048</v>
       </c>
       <c r="Q8">
-        <v>52483.87800722878</v>
+        <v>3664.553919209658</v>
       </c>
       <c r="R8">
-        <v>52483.87800722878</v>
+        <v>21987.32351525795</v>
       </c>
       <c r="S8">
-        <v>0.5315263116217311</v>
+        <v>0.03256551885426702</v>
       </c>
       <c r="T8">
-        <v>0.5315263116217311</v>
+        <v>0.02551625871397259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>985.411543362938</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H9">
-        <v>985.411543362938</v>
+        <v>3127.850708</v>
       </c>
       <c r="I9">
-        <v>0.8684625670469396</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J9">
-        <v>0.8684625670469396</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.277403546397621</v>
+        <v>57.33079666666666</v>
       </c>
       <c r="N9">
-        <v>0.277403546397621</v>
+        <v>171.99239</v>
       </c>
       <c r="O9">
-        <v>0.003187699694477473</v>
+        <v>0.6185723365797188</v>
       </c>
       <c r="P9">
-        <v>0.003187699694477473</v>
+        <v>0.6972831345697248</v>
       </c>
       <c r="Q9">
-        <v>273.3566567900321</v>
+        <v>59774.05764801245</v>
       </c>
       <c r="R9">
-        <v>273.3566567900321</v>
+        <v>537966.5188321121</v>
       </c>
       <c r="S9">
-        <v>0.002768397859640651</v>
+        <v>0.5311896738995765</v>
       </c>
       <c r="T9">
-        <v>0.002768397859640651</v>
+        <v>0.6243094055740663</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>985.411543362938</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H10">
-        <v>985.411543362938</v>
+        <v>3127.850708</v>
       </c>
       <c r="I10">
-        <v>0.8684625670469396</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J10">
-        <v>0.8684625670469396</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.2567163980931</v>
+        <v>0.079775</v>
       </c>
       <c r="N10">
-        <v>2.2567163980931</v>
+        <v>0.239325</v>
       </c>
       <c r="O10">
-        <v>0.02593237997906638</v>
+        <v>0.0008607347362981653</v>
       </c>
       <c r="P10">
-        <v>0.02593237997906638</v>
+        <v>0.0009702597084725632</v>
       </c>
       <c r="Q10">
-        <v>2223.794388777372</v>
+        <v>83.17476341023333</v>
       </c>
       <c r="R10">
-        <v>2223.794388777372</v>
+        <v>748.5728706921</v>
       </c>
       <c r="S10">
-        <v>0.02252130128625665</v>
+        <v>0.0007391429859542979</v>
       </c>
       <c r="T10">
-        <v>0.02252130128625665</v>
+        <v>0.0008687177873917179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>985.411543362938</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H11">
-        <v>985.411543362938</v>
+        <v>3127.850708</v>
       </c>
       <c r="I11">
-        <v>0.8684625670469396</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J11">
-        <v>0.8684625670469396</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.8678927244893</v>
+        <v>0.3226396666666667</v>
       </c>
       <c r="N11">
-        <v>27.8678927244893</v>
+        <v>0.967919</v>
       </c>
       <c r="O11">
-        <v>0.3202355351155214</v>
+        <v>0.003481130284019571</v>
       </c>
       <c r="P11">
-        <v>0.3202355351155214</v>
+        <v>0.003924089864264305</v>
       </c>
       <c r="Q11">
-        <v>27461.34317991179</v>
+        <v>336.3895699374058</v>
       </c>
       <c r="R11">
-        <v>27461.34317991179</v>
+        <v>3027.506129436652</v>
       </c>
       <c r="S11">
-        <v>0.2781125748860761</v>
+        <v>0.002989368180599178</v>
       </c>
       <c r="T11">
-        <v>0.2781125748860761</v>
+        <v>0.003513416701365942</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.443756546767467</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H12">
-        <v>0.443756546767467</v>
+        <v>3127.850708</v>
       </c>
       <c r="I12">
-        <v>0.0003910913692307111</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J12">
-        <v>0.0003910913692307111</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.36022704645594</v>
+        <v>3.562661333333333</v>
       </c>
       <c r="N12">
-        <v>3.36022704645594</v>
+        <v>10.687984</v>
       </c>
       <c r="O12">
-        <v>0.03861304178861933</v>
+        <v>0.03843944046714304</v>
       </c>
       <c r="P12">
-        <v>0.03861304178861933</v>
+        <v>0.04333070193251612</v>
       </c>
       <c r="Q12">
-        <v>1.491122750489933</v>
+        <v>3714.490924610297</v>
       </c>
       <c r="R12">
-        <v>1.491122750489933</v>
+        <v>33430.41832149267</v>
       </c>
       <c r="S12">
-        <v>1.51012273832738E-05</v>
+        <v>0.03300929032734466</v>
       </c>
       <c r="T12">
-        <v>1.51012273832738E-05</v>
+        <v>0.03879595450604025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.443756546767467</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H13">
-        <v>0.443756546767467</v>
+        <v>3127.850708</v>
       </c>
       <c r="I13">
-        <v>0.0003910913692307111</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J13">
-        <v>0.0003910913692307111</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.2608719277996</v>
+        <v>27.871807</v>
       </c>
       <c r="N13">
-        <v>53.2608719277996</v>
+        <v>55.743614</v>
       </c>
       <c r="O13">
-        <v>0.6120313434223155</v>
+        <v>0.3007236909846238</v>
       </c>
       <c r="P13">
-        <v>0.6120313434223155</v>
+        <v>0.2259930331927174</v>
       </c>
       <c r="Q13">
-        <v>23.63486060450467</v>
+        <v>29059.61708606312</v>
       </c>
       <c r="R13">
-        <v>23.63486060450467</v>
+        <v>174357.7025163787</v>
       </c>
       <c r="S13">
-        <v>0.0002393601761111449</v>
+        <v>0.2582419385762696</v>
       </c>
       <c r="T13">
-        <v>0.0002393601761111449</v>
+        <v>0.2023418740846046</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.443756546767467</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H14">
-        <v>0.443756546767467</v>
+        <v>2.45547</v>
       </c>
       <c r="I14">
-        <v>0.0003910913692307111</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J14">
-        <v>0.0003910913692307111</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.277403546397621</v>
+        <v>3.5147655</v>
       </c>
       <c r="N14">
-        <v>0.277403546397621</v>
+        <v>7.029531</v>
       </c>
       <c r="O14">
-        <v>0.003187699694477473</v>
+        <v>0.03792266694819667</v>
       </c>
       <c r="P14">
-        <v>0.003187699694477473</v>
+        <v>0.0284987807323048</v>
       </c>
       <c r="Q14">
-        <v>0.1230996398104571</v>
+        <v>2.876800414095</v>
       </c>
       <c r="R14">
-        <v>0.1230996398104571</v>
+        <v>17.26080248457</v>
       </c>
       <c r="S14">
-        <v>1.246681838209514E-06</v>
+        <v>2.556504834983545E-05</v>
       </c>
       <c r="T14">
-        <v>1.246681838209514E-06</v>
+        <v>2.003113755530249E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.443756546767467</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H15">
-        <v>0.443756546767467</v>
+        <v>2.45547</v>
       </c>
       <c r="I15">
-        <v>0.0003910913692307111</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J15">
-        <v>0.0003910913692307111</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.2567163980931</v>
+        <v>57.33079666666666</v>
       </c>
       <c r="N15">
-        <v>2.2567163980931</v>
+        <v>171.99239</v>
       </c>
       <c r="O15">
-        <v>0.02593237997906638</v>
+        <v>0.6185723365797188</v>
       </c>
       <c r="P15">
-        <v>0.02593237997906638</v>
+        <v>0.6972831345697248</v>
       </c>
       <c r="Q15">
-        <v>1.001432675851311</v>
+        <v>46.9246837637</v>
       </c>
       <c r="R15">
-        <v>1.001432675851311</v>
+        <v>422.3221538733</v>
       </c>
       <c r="S15">
-        <v>1.014192999342415E-05</v>
+        <v>0.0004170020983527687</v>
       </c>
       <c r="T15">
-        <v>1.014192999342415E-05</v>
+        <v>0.0004901042790130994</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.443756546767467</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H16">
-        <v>0.443756546767467</v>
+        <v>2.45547</v>
       </c>
       <c r="I16">
-        <v>0.0003910913692307111</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J16">
-        <v>0.0003910913692307111</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>27.8678927244893</v>
+        <v>0.079775</v>
       </c>
       <c r="N16">
-        <v>27.8678927244893</v>
+        <v>0.239325</v>
       </c>
       <c r="O16">
-        <v>0.3202355351155214</v>
+        <v>0.0008607347362981653</v>
       </c>
       <c r="P16">
-        <v>0.3202355351155214</v>
+        <v>0.0009702597084725632</v>
       </c>
       <c r="Q16">
-        <v>12.36655984110559</v>
+        <v>0.06529503975000001</v>
       </c>
       <c r="R16">
-        <v>12.36655984110559</v>
+        <v>0.58765535775</v>
       </c>
       <c r="S16">
-        <v>0.0001252413539046588</v>
+        <v>5.802525750603057E-07</v>
       </c>
       <c r="T16">
-        <v>0.0001252413539046588</v>
+        <v>6.819732348321343E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.20967780837969</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H17">
-        <v>1.20967780837969</v>
+        <v>2.45547</v>
       </c>
       <c r="I17">
-        <v>0.001066112835638062</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J17">
-        <v>0.001066112835638062</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.36022704645594</v>
+        <v>0.3226396666666667</v>
       </c>
       <c r="N17">
-        <v>3.36022704645594</v>
+        <v>0.967919</v>
       </c>
       <c r="O17">
-        <v>0.03861304178861933</v>
+        <v>0.003481130284019571</v>
       </c>
       <c r="P17">
-        <v>0.03861304178861933</v>
+        <v>0.003924089864264305</v>
       </c>
       <c r="Q17">
-        <v>4.06479208921498</v>
+        <v>0.26407734077</v>
       </c>
       <c r="R17">
-        <v>4.06479208921498</v>
+        <v>2.37669606693</v>
       </c>
       <c r="S17">
-        <v>4.116585947387596E-05</v>
+        <v>2.346756470071225E-06</v>
       </c>
       <c r="T17">
-        <v>4.116585947387596E-05</v>
+        <v>2.75815251848108E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.20967780837969</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H18">
-        <v>1.20967780837969</v>
+        <v>2.45547</v>
       </c>
       <c r="I18">
-        <v>0.001066112835638062</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J18">
-        <v>0.001066112835638062</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.2608719277996</v>
+        <v>3.562661333333333</v>
       </c>
       <c r="N18">
-        <v>53.2608719277996</v>
+        <v>10.687984</v>
       </c>
       <c r="O18">
-        <v>0.6120313434223155</v>
+        <v>0.03843944046714304</v>
       </c>
       <c r="P18">
-        <v>0.6120313434223155</v>
+        <v>0.04333070193251612</v>
       </c>
       <c r="Q18">
-        <v>64.42849482601197</v>
+        <v>2.91600267472</v>
       </c>
       <c r="R18">
-        <v>64.42849482601197</v>
+        <v>26.24402407248</v>
       </c>
       <c r="S18">
-        <v>0.0006524944710353375</v>
+        <v>2.591342416464367E-05</v>
       </c>
       <c r="T18">
-        <v>0.0006524944710353375</v>
+        <v>3.045615385903727E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.20967780837969</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H19">
-        <v>1.20967780837969</v>
+        <v>2.45547</v>
       </c>
       <c r="I19">
-        <v>0.001066112835638062</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J19">
-        <v>0.001066112835638062</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.277403546397621</v>
+        <v>27.871807</v>
       </c>
       <c r="N19">
-        <v>0.277403546397621</v>
+        <v>55.743614</v>
       </c>
       <c r="O19">
-        <v>0.003187699694477473</v>
+        <v>0.3007236909846238</v>
       </c>
       <c r="P19">
-        <v>0.003187699694477473</v>
+        <v>0.2259930331927174</v>
       </c>
       <c r="Q19">
-        <v>0.3355689140430278</v>
+        <v>22.81279531143</v>
       </c>
       <c r="R19">
-        <v>0.3355689140430278</v>
+        <v>136.87677186858</v>
       </c>
       <c r="S19">
-        <v>3.398447560441964E-06</v>
+        <v>0.0002027287719628186</v>
       </c>
       <c r="T19">
-        <v>3.398447560441964E-06</v>
+        <v>0.0001588453055920353</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.20967780837969</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H20">
-        <v>1.20967780837969</v>
+        <v>3.94397</v>
       </c>
       <c r="I20">
-        <v>0.001066112835638062</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J20">
-        <v>0.001066112835638062</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.2567163980931</v>
+        <v>3.5147655</v>
       </c>
       <c r="N20">
-        <v>2.2567163980931</v>
+        <v>7.029531</v>
       </c>
       <c r="O20">
-        <v>0.02593237997906638</v>
+        <v>0.03792266694819667</v>
       </c>
       <c r="P20">
-        <v>0.02593237997906638</v>
+        <v>0.0284987807323048</v>
       </c>
       <c r="Q20">
-        <v>2.729899746579769</v>
+        <v>4.620709896345001</v>
       </c>
       <c r="R20">
-        <v>2.729899746579769</v>
+        <v>27.72425937807</v>
       </c>
       <c r="S20">
-        <v>2.764684315432618E-05</v>
+        <v>4.106251908608149E-05</v>
       </c>
       <c r="T20">
-        <v>2.764684315432618E-05</v>
+        <v>3.217396489632794E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.20967780837969</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H21">
-        <v>1.20967780837969</v>
+        <v>3.94397</v>
       </c>
       <c r="I21">
-        <v>0.001066112835638062</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J21">
-        <v>0.001066112835638062</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.8678927244893</v>
+        <v>57.33079666666666</v>
       </c>
       <c r="N21">
-        <v>27.8678927244893</v>
+        <v>171.99239</v>
       </c>
       <c r="O21">
-        <v>0.3202355351155214</v>
+        <v>0.6185723365797188</v>
       </c>
       <c r="P21">
-        <v>0.3202355351155214</v>
+        <v>0.6972831345697248</v>
       </c>
       <c r="Q21">
-        <v>33.71117139512052</v>
+        <v>75.37031404314445</v>
       </c>
       <c r="R21">
-        <v>33.71117139512052</v>
+        <v>678.3328263883001</v>
       </c>
       <c r="S21">
-        <v>0.0003414072144140808</v>
+        <v>0.0006697877660245775</v>
       </c>
       <c r="T21">
-        <v>0.0003414072144140808</v>
+        <v>0.0007872043125345835</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.5796401248952</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H22">
-        <v>17.5796401248952</v>
+        <v>3.94397</v>
       </c>
       <c r="I22">
-        <v>0.0154932824701088</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J22">
-        <v>0.0154932824701088</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>3.36022704645594</v>
+        <v>0.079775</v>
       </c>
       <c r="N22">
-        <v>3.36022704645594</v>
+        <v>0.239325</v>
       </c>
       <c r="O22">
-        <v>0.03861304178861933</v>
+        <v>0.0008607347362981653</v>
       </c>
       <c r="P22">
-        <v>0.03861304178861933</v>
+        <v>0.0009702597084725632</v>
       </c>
       <c r="Q22">
-        <v>59.07158221463493</v>
+        <v>0.1048767355833333</v>
       </c>
       <c r="R22">
-        <v>59.07158221463493</v>
+        <v>0.94389062025</v>
       </c>
       <c r="S22">
-        <v>0.0005982427634611945</v>
+        <v>9.320002885234167E-07</v>
       </c>
       <c r="T22">
-        <v>0.0005982427634611945</v>
+        <v>1.095383767254698E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.5796401248952</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H23">
-        <v>17.5796401248952</v>
+        <v>3.94397</v>
       </c>
       <c r="I23">
-        <v>0.0154932824701088</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J23">
-        <v>0.0154932824701088</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.2608719277996</v>
+        <v>0.3226396666666667</v>
       </c>
       <c r="N23">
-        <v>53.2608719277996</v>
+        <v>0.967919</v>
       </c>
       <c r="O23">
-        <v>0.6120313434223155</v>
+        <v>0.003481130284019571</v>
       </c>
       <c r="P23">
-        <v>0.6120313434223155</v>
+        <v>0.003924089864264305</v>
       </c>
       <c r="Q23">
-        <v>936.3069612288501</v>
+        <v>0.4241603887144445</v>
       </c>
       <c r="R23">
-        <v>936.3069612288501</v>
+        <v>3.81744349843</v>
       </c>
       <c r="S23">
-        <v>0.0094823744842021</v>
+        <v>3.769354590064962E-06</v>
       </c>
       <c r="T23">
-        <v>0.0094823744842021</v>
+        <v>4.430137932173404E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.5796401248952</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H24">
-        <v>17.5796401248952</v>
+        <v>3.94397</v>
       </c>
       <c r="I24">
-        <v>0.0154932824701088</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J24">
-        <v>0.0154932824701088</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.277403546397621</v>
+        <v>3.562661333333333</v>
       </c>
       <c r="N24">
-        <v>0.277403546397621</v>
+        <v>10.687984</v>
       </c>
       <c r="O24">
-        <v>0.003187699694477473</v>
+        <v>0.03843944046714304</v>
       </c>
       <c r="P24">
-        <v>0.003187699694477473</v>
+        <v>0.04333070193251612</v>
       </c>
       <c r="Q24">
-        <v>4.876654515039845</v>
+        <v>4.683676472942222</v>
       </c>
       <c r="R24">
-        <v>4.876654515039845</v>
+        <v>42.15308825648</v>
       </c>
       <c r="S24">
-        <v>4.938793179641902E-05</v>
+        <v>4.162207948076323E-05</v>
       </c>
       <c r="T24">
-        <v>4.938793179641902E-05</v>
+        <v>4.891860097473283E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.5796401248952</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H25">
-        <v>17.5796401248952</v>
+        <v>3.94397</v>
       </c>
       <c r="I25">
-        <v>0.0154932824701088</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J25">
-        <v>0.0154932824701088</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.2567163980931</v>
+        <v>27.871807</v>
       </c>
       <c r="N25">
-        <v>2.2567163980931</v>
+        <v>55.743614</v>
       </c>
       <c r="O25">
-        <v>0.02593237997906638</v>
+        <v>0.3007236909846238</v>
       </c>
       <c r="P25">
-        <v>0.02593237997906638</v>
+        <v>0.2259930331927174</v>
       </c>
       <c r="Q25">
-        <v>39.67226214242643</v>
+        <v>36.64185688459667</v>
       </c>
       <c r="R25">
-        <v>39.67226214242643</v>
+        <v>219.85114130758</v>
       </c>
       <c r="S25">
-        <v>0.0004017776881378696</v>
+        <v>0.0003256224652543903</v>
       </c>
       <c r="T25">
-        <v>0.0004017776881378696</v>
+        <v>0.0002551369472629759</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>17.5796401248952</v>
+        <v>20.443657</v>
       </c>
       <c r="H26">
-        <v>17.5796401248952</v>
+        <v>61.330971</v>
       </c>
       <c r="I26">
-        <v>0.0154932824701088</v>
+        <v>0.01683809496630118</v>
       </c>
       <c r="J26">
-        <v>0.0154932824701088</v>
+        <v>0.01755595833477656</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>27.8678927244893</v>
+        <v>3.5147655</v>
       </c>
       <c r="N26">
-        <v>27.8678927244893</v>
+        <v>7.029531</v>
       </c>
       <c r="O26">
-        <v>0.3202355351155214</v>
+        <v>0.03792266694819667</v>
       </c>
       <c r="P26">
-        <v>0.3202355351155214</v>
+        <v>0.0284987807323048</v>
       </c>
       <c r="Q26">
-        <v>489.9075251357071</v>
+        <v>71.8546603174335</v>
       </c>
       <c r="R26">
-        <v>489.9075251357071</v>
+        <v>431.127961904601</v>
       </c>
       <c r="S26">
-        <v>0.00496149960251122</v>
+        <v>0.0006385454674491465</v>
       </c>
       <c r="T26">
-        <v>0.00496149960251122</v>
+        <v>0.000500323407128276</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>109.468251615701</v>
+        <v>20.443657</v>
       </c>
       <c r="H27">
-        <v>109.468251615701</v>
+        <v>61.330971</v>
       </c>
       <c r="I27">
-        <v>0.09647652237142201</v>
+        <v>0.01683809496630118</v>
       </c>
       <c r="J27">
-        <v>0.09647652237142201</v>
+        <v>0.01755595833477656</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.36022704645594</v>
+        <v>57.33079666666666</v>
       </c>
       <c r="N27">
-        <v>3.36022704645594</v>
+        <v>171.99239</v>
       </c>
       <c r="O27">
-        <v>0.03861304178861933</v>
+        <v>0.6185723365797188</v>
       </c>
       <c r="P27">
-        <v>0.03861304178861933</v>
+        <v>0.6972831345697248</v>
       </c>
       <c r="Q27">
-        <v>367.8381798073227</v>
+        <v>1172.051142590077</v>
       </c>
       <c r="R27">
-        <v>367.8381798073227</v>
+        <v>10548.46028331069</v>
       </c>
       <c r="S27">
-        <v>0.003725251989948386</v>
+        <v>0.01041557974685612</v>
       </c>
       <c r="T27">
-        <v>0.003725251989948386</v>
+        <v>0.01224147365804848</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>109.468251615701</v>
+        <v>20.443657</v>
       </c>
       <c r="H28">
-        <v>109.468251615701</v>
+        <v>61.330971</v>
       </c>
       <c r="I28">
-        <v>0.09647652237142201</v>
+        <v>0.01683809496630118</v>
       </c>
       <c r="J28">
-        <v>0.09647652237142201</v>
+        <v>0.01755595833477656</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>53.2608719277996</v>
+        <v>0.079775</v>
       </c>
       <c r="N28">
-        <v>53.2608719277996</v>
+        <v>0.239325</v>
       </c>
       <c r="O28">
-        <v>0.6120313434223155</v>
+        <v>0.0008607347362981653</v>
       </c>
       <c r="P28">
-        <v>0.6120313434223155</v>
+        <v>0.0009702597084725632</v>
       </c>
       <c r="Q28">
-        <v>5830.374529463993</v>
+        <v>1.630892737175</v>
       </c>
       <c r="R28">
-        <v>5830.374529463993</v>
+        <v>14.678034634575</v>
       </c>
       <c r="S28">
-        <v>0.05904665559569449</v>
+        <v>1.449313323058271E-05</v>
       </c>
       <c r="T28">
-        <v>0.05904665559569449</v>
+        <v>1.703383901585677E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>109.468251615701</v>
+        <v>20.443657</v>
       </c>
       <c r="H29">
-        <v>109.468251615701</v>
+        <v>61.330971</v>
       </c>
       <c r="I29">
-        <v>0.09647652237142201</v>
+        <v>0.01683809496630118</v>
       </c>
       <c r="J29">
-        <v>0.09647652237142201</v>
+        <v>0.01755595833477656</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.277403546397621</v>
+        <v>0.3226396666666667</v>
       </c>
       <c r="N29">
-        <v>0.277403546397621</v>
+        <v>0.967919</v>
       </c>
       <c r="O29">
-        <v>0.003187699694477473</v>
+        <v>0.003481130284019571</v>
       </c>
       <c r="P29">
-        <v>0.003187699694477473</v>
+        <v>0.003924089864264305</v>
       </c>
       <c r="Q29">
-        <v>30.36688121614256</v>
+        <v>6.595934679927666</v>
       </c>
       <c r="R29">
-        <v>30.36688121614256</v>
+        <v>59.36341211934899</v>
       </c>
       <c r="S29">
-        <v>0.000307538180887631</v>
+        <v>5.861560231238854E-05</v>
       </c>
       <c r="T29">
-        <v>0.000307538180887631</v>
+        <v>6.889115815894314E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>109.468251615701</v>
+        <v>20.443657</v>
       </c>
       <c r="H30">
-        <v>109.468251615701</v>
+        <v>61.330971</v>
       </c>
       <c r="I30">
-        <v>0.09647652237142201</v>
+        <v>0.01683809496630118</v>
       </c>
       <c r="J30">
-        <v>0.09647652237142201</v>
+        <v>0.01755595833477656</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.2567163980931</v>
+        <v>3.562661333333333</v>
       </c>
       <c r="N30">
-        <v>2.2567163980931</v>
+        <v>10.687984</v>
       </c>
       <c r="O30">
-        <v>0.02593237997906638</v>
+        <v>0.03843944046714304</v>
       </c>
       <c r="P30">
-        <v>0.02593237997906638</v>
+        <v>0.04333070193251612</v>
       </c>
       <c r="Q30">
-        <v>247.038798491734</v>
+        <v>72.83382630582932</v>
       </c>
       <c r="R30">
-        <v>247.038798491734</v>
+        <v>655.504436752464</v>
       </c>
       <c r="S30">
-        <v>0.002501865837194614</v>
+        <v>0.0006472469490372352</v>
       </c>
       <c r="T30">
-        <v>0.002501865837194614</v>
+        <v>0.000760711997743875</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>109.468251615701</v>
+        <v>20.443657</v>
       </c>
       <c r="H31">
-        <v>109.468251615701</v>
+        <v>61.330971</v>
       </c>
       <c r="I31">
-        <v>0.09647652237142201</v>
+        <v>0.01683809496630118</v>
       </c>
       <c r="J31">
-        <v>0.09647652237142201</v>
+        <v>0.01755595833477656</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.8678927244893</v>
+        <v>27.871807</v>
       </c>
       <c r="N31">
-        <v>27.8678927244893</v>
+        <v>55.743614</v>
       </c>
       <c r="O31">
-        <v>0.3202355351155214</v>
+        <v>0.3007236909846238</v>
       </c>
       <c r="P31">
-        <v>0.3202355351155214</v>
+        <v>0.2259930331927174</v>
       </c>
       <c r="Q31">
-        <v>3050.649492763758</v>
+        <v>569.8016622781989</v>
       </c>
       <c r="R31">
-        <v>3050.649492763758</v>
+        <v>3418.809973669194</v>
       </c>
       <c r="S31">
-        <v>0.03089521076769691</v>
+        <v>0.005063614067415705</v>
       </c>
       <c r="T31">
-        <v>0.03089521076769691</v>
+        <v>0.003967524274681123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>128.382446</v>
+      </c>
+      <c r="H32">
+        <v>256.764892</v>
+      </c>
+      <c r="I32">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J32">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.5147655</v>
+      </c>
+      <c r="N32">
+        <v>7.029531</v>
+      </c>
+      <c r="O32">
+        <v>0.03792266694819667</v>
+      </c>
+      <c r="P32">
+        <v>0.0284987807323048</v>
+      </c>
+      <c r="Q32">
+        <v>451.234192006413</v>
+      </c>
+      <c r="R32">
+        <v>1804.936768025652</v>
+      </c>
+      <c r="S32">
+        <v>0.0040099493448425</v>
+      </c>
+      <c r="T32">
+        <v>0.002094626638087367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>128.382446</v>
+      </c>
+      <c r="H33">
+        <v>256.764892</v>
+      </c>
+      <c r="I33">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J33">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>57.33079666666666</v>
+      </c>
+      <c r="N33">
+        <v>171.99239</v>
+      </c>
+      <c r="O33">
+        <v>0.6185723365797188</v>
+      </c>
+      <c r="P33">
+        <v>0.6972831345697248</v>
+      </c>
+      <c r="Q33">
+        <v>7360.267907195313</v>
+      </c>
+      <c r="R33">
+        <v>44161.60744317187</v>
+      </c>
+      <c r="S33">
+        <v>0.06540794557497465</v>
+      </c>
+      <c r="T33">
+        <v>0.05124948472982212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>128.382446</v>
+      </c>
+      <c r="H34">
+        <v>256.764892</v>
+      </c>
+      <c r="I34">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J34">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.079775</v>
+      </c>
+      <c r="N34">
+        <v>0.239325</v>
+      </c>
+      <c r="O34">
+        <v>0.0008607347362981653</v>
+      </c>
+      <c r="P34">
+        <v>0.0009702597084725632</v>
+      </c>
+      <c r="Q34">
+        <v>10.24170962965</v>
+      </c>
+      <c r="R34">
+        <v>61.4502577779</v>
+      </c>
+      <c r="S34">
+        <v>9.101423949472885E-05</v>
+      </c>
+      <c r="T34">
+        <v>7.131293967695129E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>128.382446</v>
+      </c>
+      <c r="H35">
+        <v>256.764892</v>
+      </c>
+      <c r="I35">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J35">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.3226396666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.967919</v>
+      </c>
+      <c r="O35">
+        <v>0.003481130284019571</v>
+      </c>
+      <c r="P35">
+        <v>0.003924089864264305</v>
+      </c>
+      <c r="Q35">
+        <v>41.42126958329133</v>
+      </c>
+      <c r="R35">
+        <v>248.527617499748</v>
+      </c>
+      <c r="S35">
+        <v>0.0003680953167345596</v>
+      </c>
+      <c r="T35">
+        <v>0.0002884159584630733</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>128.382446</v>
+      </c>
+      <c r="H36">
+        <v>256.764892</v>
+      </c>
+      <c r="I36">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J36">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.562661333333333</v>
+      </c>
+      <c r="N36">
+        <v>10.687984</v>
+      </c>
+      <c r="O36">
+        <v>0.03843944046714304</v>
+      </c>
+      <c r="P36">
+        <v>0.04333070193251612</v>
+      </c>
+      <c r="Q36">
+        <v>457.3831762429546</v>
+      </c>
+      <c r="R36">
+        <v>2744.299057457728</v>
+      </c>
+      <c r="S36">
+        <v>0.004064593065880414</v>
+      </c>
+      <c r="T36">
+        <v>0.003184755283652859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>128.382446</v>
+      </c>
+      <c r="H37">
+        <v>256.764892</v>
+      </c>
+      <c r="I37">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J37">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>27.871807</v>
+      </c>
+      <c r="N37">
+        <v>55.743614</v>
+      </c>
+      <c r="O37">
+        <v>0.3007236909846238</v>
+      </c>
+      <c r="P37">
+        <v>0.2259930331927174</v>
+      </c>
+      <c r="Q37">
+        <v>3578.250757099922</v>
+      </c>
+      <c r="R37">
+        <v>14313.00302839969</v>
+      </c>
+      <c r="S37">
+        <v>0.03179857496018628</v>
+      </c>
+      <c r="T37">
+        <v>0.01661022033869114</v>
       </c>
     </row>
   </sheetData>
